--- a/images/png_tipos/tipos_dic.xlsx
+++ b/images/png_tipos/tipos_dic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/615c6d0d1bcf32ef/Documentos/GitHub/DesafioPokemon/images/png_tipos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{25B99684-15A0-4B00-8E19-386A7097130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D329922E-B566-45F8-871C-54ED314D843A}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{25B99684-15A0-4B00-8E19-386A7097130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7C0C9C-69E7-4D2F-92B5-CC6759F372AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03669B97-91D3-4F23-A5A1-7757E74B40DC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
   <si>
     <t>Terrestre</t>
   </si>
@@ -224,6 +224,180 @@
   <si>
     <t>Introduzido na 6ª Geração, o tipo Fada conta atualmente com 66 Pokémon e 35 Movimentos. No TCG, o tipo Fada também existe como um tipo próprio e exclusivo. Em inglês, o tipo Fada é chamado de Fairy Type.
 Um ponto interessante sobre os Pokémon tipo Fada é que a vantagem contra o tipo Dragão os torna Pokémon bastante desejáveis. Isso também ajudou a equilibrar melhor os jogos, uma vez que os tipo Dragão estavam próximos da invencibilidade até a 5ª Geração, pois embora fossem fracos apenas contra Dragão e Gelo, ainda assim eram muito fortes.</t>
+  </si>
+  <si>
+    <t>Os Pokémon tipo Fantasma foram introduzidos na 1ª Geração, e se manifestavam em apenas três Pokémon: Gastly, Haunter e Gengar. A 2ª Geração incluiu um único Pokémon deste tipo: apenas Misdreavus. Foi a partir da 3ª Geração que os Pokémon Fantasma começaram a aparecer mais frequentemente, sendo que, na 5ª Geração, houve nove adições. O tipo Fantasma é, dentre os 18 tipos de Pokémon existentes, o que abrange a menor quantidade, com 63 representantes. Atualmente, há também 33 Movimentos Fantasma. No TCG, este tipo está incluído em Psíquico. Em inglês, é chamado de Ghost Type.</t>
+  </si>
+  <si>
+    <t>Fantasma e Sombrio</t>
+  </si>
+  <si>
+    <t>Inseto e Venenoso</t>
+  </si>
+  <si>
+    <t>Inseto e Psíquico</t>
+  </si>
+  <si>
+    <t>Lutador e Normal</t>
+  </si>
+  <si>
+    <t>O tipo Fogo foi criado na 1ª Geração, quando existiam 12 Pokémon desse tipo. Conforme a franquia evoluiu, a quantidade de tipo Fogo aumentou, chegando atualmente a 87. Quando se levam os Movimentos em consideração, podem ser encontrados entre eles 47 Movimentos de tipo Fogo. No Trading Card Game (TCG), Fogo está exclusivamente representado em um tipo de mesmo nome. Em inglês, o tipo Fogo é chamado de "Fire Type".</t>
+  </si>
+  <si>
+    <t>Aço, Gelo, Inseto e Planta</t>
+  </si>
+  <si>
+    <t>Água, Dragão, Fogo e Pedra</t>
+  </si>
+  <si>
+    <t>Água, Pedra e Terrestre</t>
+  </si>
+  <si>
+    <t>Aço, Fada, Fogo, Gelo, Inseto e Planta</t>
+  </si>
+  <si>
+    <t>Introduzido na 1ª Geração, o tipo Gelo contava, inicialmente, com 5 Pokémon. Muitos deles foram surgindo conforme novas Gerações foram lançadas, hoje atingindo a marca de 57 representantes. A 5ª Geração foi a que mais lançou Pokémon de Gelo (7). Por outro lado, a 1ª Geração foi aquela em que mais Movimentos do tipo foram adicionados (6). Atualmente, esse número já aumentou para 32. No Trading Card Game (TCG), Gelo está incluído no tipo Água. Em inglês, o tipo Gelo é chamado de Ice Type.</t>
+  </si>
+  <si>
+    <t>Dragão, Planta, Terrestre e Voador</t>
+  </si>
+  <si>
+    <t>Aço, Fogo, Lutador e Pedra</t>
+  </si>
+  <si>
+    <t>Sombrio, Planta e Psíquico</t>
+  </si>
+  <si>
+    <t>Aço, Fada, Fogo, Fantasma, Lutador, Venenoso e Voador</t>
+  </si>
+  <si>
+    <t>Fogo, Pedra e Voador</t>
+  </si>
+  <si>
+    <t>Lutador, Planta e Terrestre</t>
+  </si>
+  <si>
+    <t>O tipo Inseto teve sua introdução na 1ª Geração, em 1996, quando foram criados 12 Pokémon deste tipo. Conforme as Gerações avançaram, mais criaturas do tipo surgiram, até se chegar aos 95 Pokémon atuais. Esse valor se deve, principalmente, à 5ª Geração, que adicionou 18 Pokémon deste tipo à lista. Por outro lado, ao falar de Movimentos, podemos calcular 35 pertencentes ao tipo. Por fim, dentro do TCG, Inseto está incluído no tipo Planta. Em inglês, o tipo Inseto é chamado de Bug Type.</t>
+  </si>
+  <si>
+    <t>Aço, Gelo, Normal, Pedra e Sombrio</t>
+  </si>
+  <si>
+    <t>Fada, Inseto, Psíquico, Venenoso e Voador</t>
+  </si>
+  <si>
+    <t>Fada, Psíquico e Voador</t>
+  </si>
+  <si>
+    <t>Inseto, Pedra e Sombrio</t>
+  </si>
+  <si>
+    <t>Em sua primeira aparição, logo na 1ª Geração, o tipo Lutador era o tipo de 8 diferentes Pokémon. Por outro lado, foi a 5ª Geração a que mais introduziu Pokémon lutadores (15), o que contribuiu para que atualmente existam 77 criaturas do tipo. Já ao contarmos os Movimentos de tipo Lutador, pode-se encontrar 54 diferentes. No TCG (Trading Card Game), Lutador está incluído em um tipo de mesmo nome. Em inglês, o tipo Lutador é chamado de Fighting Type.</t>
+  </si>
+  <si>
+    <t>O tipo Normal surgiu logo na 1ª Geração, a qual criou 24 Pokémon deste tipo. Esta foi, aliás, a Geração que mais introduziu espécies de tipo Normal. Atualmente, pode-se contar 137 Pokémon Normais - isso faz de Normal o segundo tipo mais comum de todos, ficando apenas atrás de Água. Por outro lado, ao considerar os Movimentos, Normal é o mais comum de todos, pois 195 deles pertencem ao tipo. No TCG, está incluído em Colorless. Em inglês, o tipo Normal é chamado de Normal Type.</t>
+  </si>
+  <si>
+    <t>Aço e Pedra</t>
+  </si>
+  <si>
+    <t>Fogo, Gelo, Inseto e Voador</t>
+  </si>
+  <si>
+    <t>Aço, Lutador e Terrestre</t>
+  </si>
+  <si>
+    <t>Aço, Água, Lutador, Planta e Terrestre</t>
+  </si>
+  <si>
+    <t>Fogo, Normal, Venenoso e Voador</t>
+  </si>
+  <si>
+    <t>A 1ª Geração, na qual o tipo Pedra foi introduzido, criou 11 Pokémon de Pedra. Porém, foi a 3ª Geração a que mais adicionou criaturas ao tipo (12). Isso ajudou bastante para que a soma das criaturas de Pedra chegasse atualmente a 76. Contando agora os Movimentos tipo Pedra, chega-se a um total de 26 deles. No TCG, Pedra está incluído no tipo Lutador. Em inglês, o tipo Pedra é chamado de Rock Type. No Brasil, a tradução oficial atual é tipo Pedra, mas ele também já foi chamado de tipo rocha ou tipo mineral no passado.</t>
+  </si>
+  <si>
+    <t>Introduzido na 1ª Geração, o tipo Planta abrange atualmente um total de 124 Pokémon. A 5ª Geração foi a que mais incluiu novos Pokémon de Planta, com 20 representantes. No total, há 61 Movimentos do tipo. Já no Trading Card Game (TCG), o tipo Planta está incluído em um tipo de mesmo nome. Em inglês, o tipo Planta é chamado de Grass Type. Embora a tradução oficial atual seja tipo Planta, muitas vezes ele já foi chamado de tipo grama ou tipo vegetal no passado.</t>
+  </si>
+  <si>
+    <t>Aço, Dragão, Fogo, Inseto, Planta, Venenoso e Voador</t>
+  </si>
+  <si>
+    <t>Fogo, Inseto e Voador</t>
+  </si>
+  <si>
+    <t>Água, Elétrico, Planta e Terrestre</t>
+  </si>
+  <si>
+    <t>A introdução do tipo Psíquico ocorreu na 1ª Geração, na qual 14 Pokémon do tipo foram criados. Atualmente, o número total de Pokémon deste tipo está em 123. A 3ª Geração foi a que houve maior quantidade de Pokémon deste tipo adicionados: 20. Por outro lado, foi na 1ª Geração em que mais técnicas do tipo apareceram: 15. Atualmente, os Movimentos do tipo Psíquico se juntam em um total de 73. No TCG, Psíquico está incluído em um tipo exclusivo e de mesmo nome. Em inglês, o tipo Psíquico é conhecido como Psychic Type.</t>
+  </si>
+  <si>
+    <t>Lutador e Venenoso</t>
+  </si>
+  <si>
+    <t>Aço e Psíquico</t>
+  </si>
+  <si>
+    <t>Fantasma, Inseto e Sombrio</t>
+  </si>
+  <si>
+    <t>Lutador e Psíquico</t>
+  </si>
+  <si>
+    <t>Fantasma e Psíquico</t>
+  </si>
+  <si>
+    <t>Sombrio, Fada e Lutador</t>
+  </si>
+  <si>
+    <t>Inseto, Fada e Lutador</t>
+  </si>
+  <si>
+    <t>Sombrio e Fantasma</t>
+  </si>
+  <si>
+    <t>O tipo Sombrio foi criado na 2ª Geração, na qual foram introduzidos seis Pokémon deste tipo. Atualmente, esse número está em 74. Foi a 5ª Geração que incluiu mais Pokémon do tipo (16), embora tenha sido a 4ª Geração a que mais criou Movimentos Sombrios (11). Atualmente, há um total de 53  Movimentos. No TCG, este tipo está exclusivamente representado em Sombrio. Em inglês, o tipo Sombrio é chamado de Dark Type. Em português, embora a atual tradução oficial seja Sombrio, muitas vezes ele foi chamado de tipo Noturno.</t>
+  </si>
+  <si>
+    <t>Logo quando foi introduzido, na 1ª Geração, Terrestre já era o tipo de 14 diferentes espécies de Pokémon. Isso faz dessa Geração a que mais introduziu Pokémon do tipo. Com o passar dos anos e o lançamento de novas criaturas, a família dos Pokémon de Terrestre foi crescendo, o que leva a um total de 82 Pokémon desse tipo atualmente. O tipo Terrestre contabiliza também 32 Movimentos diferentes. No Pokémon Trading Card Game (TCG), o tipo Terrestre está incluído no tipo Lutador. Em inglês, o tipo Terrestre é chamado de Ground Type. Embora a tradução oficial atual seja tipo Terrestre, ele já foi chamado de tipo terra ou tipo solo no passado.</t>
+  </si>
+  <si>
+    <t>Aço, Elétrico, Fogo, Pedra e Venenoso</t>
+  </si>
+  <si>
+    <t>Inseto e Planta</t>
+  </si>
+  <si>
+    <t>Água, Gelo e Planta</t>
+  </si>
+  <si>
+    <t>Pedra e Venenoso</t>
+  </si>
+  <si>
+    <t>Fada e Planta</t>
+  </si>
+  <si>
+    <t>Fantasma, Pedra, Venenoso e Terrestre</t>
+  </si>
+  <si>
+    <t>Psíquico e Terrestre</t>
+  </si>
+  <si>
+    <t>Fada, Inseto, Lutador, Planta e Venenoso</t>
+  </si>
+  <si>
+    <t>A introdução do tipo Venenoso ocorreu na 1ª Geração, na qual 33 Pokémon deste tipo foram criados - e foi justamente nessa geração que este tipo mais apareceu. Atualmente, após o lançamento de outras gerações na franquia, totaliza-se 83 Pokémon tipo Venenoso e 34 Movimentos diferentes. No TCG, esse tipo estava incluído em Planta antes do set Diamond &amp; Pearl, a partir do qual passou a pertencer ao tipo Psíquico. Em inglês, esse tipo é chamado de Poison Type.</t>
+  </si>
+  <si>
+    <t>Criado na 1ª Geração, o tipo Voador possuía inicialmente 19 representantes. Com o tempo, esse número foi crescendo, atualmente totalizando 86 Pokémon. As duas primeiras Gerações foram as que mais contribuíram para esse valor, pois foram as que mais adicionaram Pokémon voadores: 19 espécies cada. Em termos de Movimentos, o tipo Voador atualmente abrange 33 deles. No TCG, o tipo Voador está incluído em Colorless. Em inglês, o tipo Voador é chamado de Flying Type.</t>
+  </si>
+  <si>
+    <t>Inseto, Lutador e Planta</t>
+  </si>
+  <si>
+    <t>Aço, Elétrico e Pedra</t>
+  </si>
+  <si>
+    <t>Elétrico, Gelo e Pedra</t>
   </si>
 </sst>
 </file>
@@ -581,7 +755,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +950,27 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -784,6 +979,27 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -792,6 +1008,27 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -800,6 +1037,27 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -808,6 +1066,27 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -816,6 +1095,27 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -824,6 +1124,27 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -832,6 +1153,27 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -840,6 +1182,27 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -848,29 +1211,113 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -883,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C328E8-78BD-47D0-BE75-A277413FC228}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:G19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1512,385 @@
         <v>442.56</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>63.54</v>
+      </c>
+      <c r="D7">
+        <v>79.03</v>
+      </c>
+      <c r="E7">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="F7">
+        <v>80.84</v>
+      </c>
+      <c r="G7">
+        <v>78.55</v>
+      </c>
+      <c r="H7">
+        <v>63.21</v>
+      </c>
+      <c r="I7">
+        <v>445.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>68.8</v>
+      </c>
+      <c r="D8">
+        <v>82.55</v>
+      </c>
+      <c r="E8">
+        <v>68.5</v>
+      </c>
+      <c r="F8">
+        <v>86.83</v>
+      </c>
+      <c r="G8">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="H8">
+        <v>73.8</v>
+      </c>
+      <c r="I8">
+        <v>451.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>77.11</v>
+      </c>
+      <c r="D9">
+        <v>83.69</v>
+      </c>
+      <c r="E9">
+        <v>75.55</v>
+      </c>
+      <c r="F9">
+        <v>76.38</v>
+      </c>
+      <c r="G9">
+        <v>76.27</v>
+      </c>
+      <c r="H9">
+        <v>68.819999999999993</v>
+      </c>
+      <c r="I9">
+        <v>457.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>57.06</v>
+      </c>
+      <c r="D10">
+        <v>71.89</v>
+      </c>
+      <c r="E10">
+        <v>71.11</v>
+      </c>
+      <c r="F10">
+        <v>56.74</v>
+      </c>
+      <c r="G10">
+        <v>65.78</v>
+      </c>
+      <c r="H10">
+        <v>61.92</v>
+      </c>
+      <c r="I10">
+        <v>384.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>75.64</v>
+      </c>
+      <c r="D11">
+        <v>107.31</v>
+      </c>
+      <c r="E11">
+        <v>77.5</v>
+      </c>
+      <c r="F11">
+        <v>66.14</v>
+      </c>
+      <c r="G11">
+        <v>72.25</v>
+      </c>
+      <c r="H11">
+        <v>77.08</v>
+      </c>
+      <c r="I11">
+        <v>475.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>75.87</v>
+      </c>
+      <c r="D12">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="E12">
+        <v>60.81</v>
+      </c>
+      <c r="F12">
+        <v>58.5</v>
+      </c>
+      <c r="G12">
+        <v>64.7</v>
+      </c>
+      <c r="H12">
+        <v>71.2</v>
+      </c>
+      <c r="I12">
+        <v>404.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>68.03</v>
+      </c>
+      <c r="D13">
+        <v>91.12</v>
+      </c>
+      <c r="E13">
+        <v>104.24</v>
+      </c>
+      <c r="F13">
+        <v>59.81</v>
+      </c>
+      <c r="G13">
+        <v>72.58</v>
+      </c>
+      <c r="H13">
+        <v>53.69</v>
+      </c>
+      <c r="I13">
+        <v>449.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>66.22</v>
+      </c>
+      <c r="D14">
+        <v>75.53</v>
+      </c>
+      <c r="E14">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F14">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G14">
+        <v>71.38</v>
+      </c>
+      <c r="H14">
+        <v>59.4</v>
+      </c>
+      <c r="I14">
+        <v>418.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>71.13</v>
+      </c>
+      <c r="D15">
+        <v>73.39</v>
+      </c>
+      <c r="E15">
+        <v>74.45</v>
+      </c>
+      <c r="F15">
+        <v>93.07</v>
+      </c>
+      <c r="G15">
+        <v>86.34</v>
+      </c>
+      <c r="H15">
+        <v>74.62</v>
+      </c>
+      <c r="I15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>72.59</v>
+      </c>
+      <c r="D16">
+        <v>92.25</v>
+      </c>
+      <c r="E16">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="F16">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="G16">
+        <v>68.25</v>
+      </c>
+      <c r="H16">
+        <v>76.14</v>
+      </c>
+      <c r="I16">
+        <v>451.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>75.23</v>
+      </c>
+      <c r="D17">
+        <v>91.64</v>
+      </c>
+      <c r="E17">
+        <v>86.53</v>
+      </c>
+      <c r="F17">
+        <v>59.86</v>
+      </c>
+      <c r="G17">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="H17">
+        <v>57.83</v>
+      </c>
+      <c r="I17">
+        <v>436.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>67.55</v>
+      </c>
+      <c r="D18">
+        <v>71.86</v>
+      </c>
+      <c r="E18">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="F18">
+        <v>71.45</v>
+      </c>
+      <c r="G18">
+        <v>70.92</v>
+      </c>
+      <c r="H18">
+        <v>66.260000000000005</v>
+      </c>
+      <c r="I18">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>71.59</v>
+      </c>
+      <c r="D19">
+        <v>80.25</v>
+      </c>
+      <c r="E19">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="F19">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="G19">
+        <v>70.95</v>
+      </c>
+      <c r="H19">
+        <v>85.15</v>
+      </c>
+      <c r="I19">
+        <v>452.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/images/png_tipos/tipos_dic.xlsx
+++ b/images/png_tipos/tipos_dic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/615c6d0d1bcf32ef/Documentos/GitHub/DesafioPokemon/images/png_tipos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{25B99684-15A0-4B00-8E19-386A7097130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7C0C9C-69E7-4D2F-92B5-CC6759F372AD}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="8_{25B99684-15A0-4B00-8E19-386A7097130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB14DE7-1751-4E85-A930-EBB455FB386A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03669B97-91D3-4F23-A5A1-7757E74B40DC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
   <si>
     <t>Terrestre</t>
   </si>
@@ -398,6 +398,165 @@
   </si>
   <si>
     <t>Elétrico, Gelo e Pedra</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_aco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_agua.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_dragao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_eletrico.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_fada.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_fantasma.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_fogo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_gelo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_inseto.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_lutador.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_normal.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_pedra.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_planta.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_psiquico.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_sombrio.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_terrestre.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_venenoso.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/tags/tag_voador.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_aco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_agua.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_dragao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_eletrico.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_fada.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_fantasma.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_fogo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_gelo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_inseto.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_lutador.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_normal.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_pedra.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_planta.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_psiquico.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_sombrio.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_terrestre.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_venenoso.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/icons/icon_voador.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_aco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_agua.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_dragao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_eletrico.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_fada.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_fantasma.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_fogo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_gelo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_inseto.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_lutador.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_normal.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_pedra.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_planta.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_psiquico.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_terrestre.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_venenoso.png</t>
+  </si>
+  <si>
+    <t>https://github.com/cristiano-silva-0182/DesafioPokemon/blob/main/images/png_tipos/cards/card_voador.png</t>
   </si>
 </sst>
 </file>
@@ -413,12 +572,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -433,11 +598,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,7 +921,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,6 +992,15 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -855,6 +1030,15 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -884,6 +1068,15 @@
       <c r="I4" t="s">
         <v>29</v>
       </c>
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -913,6 +1106,15 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
+      <c r="J5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -942,6 +1144,15 @@
       <c r="I6" t="s">
         <v>8</v>
       </c>
+      <c r="J6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -971,6 +1182,15 @@
       <c r="I7" t="s">
         <v>66</v>
       </c>
+      <c r="J7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1000,6 +1220,15 @@
       <c r="I8" t="s">
         <v>29</v>
       </c>
+      <c r="J8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1029,6 +1258,15 @@
       <c r="I9" t="s">
         <v>29</v>
       </c>
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1058,6 +1296,15 @@
       <c r="I10" t="s">
         <v>29</v>
       </c>
+      <c r="J10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1087,6 +1334,15 @@
       <c r="I11" t="s">
         <v>29</v>
       </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1116,6 +1372,15 @@
       <c r="I12" t="s">
         <v>2</v>
       </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1145,6 +1410,15 @@
       <c r="I13" t="s">
         <v>29</v>
       </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1174,6 +1448,15 @@
       <c r="I14" t="s">
         <v>29</v>
       </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1203,6 +1486,15 @@
       <c r="I15" t="s">
         <v>29</v>
       </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1232,8 +1524,15 @@
       <c r="I16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1261,8 +1560,17 @@
       <c r="I17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1290,8 +1598,17 @@
       <c r="I18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1318,6 +1635,15 @@
       </c>
       <c r="I19" t="s">
         <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/images/png_tipos/tipos_dic.xlsx
+++ b/images/png_tipos/tipos_dic.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/615c6d0d1bcf32ef/Documentos/GitHub/DesafioPokemon/images/png_tipos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="8_{25B99684-15A0-4B00-8E19-386A7097130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB14DE7-1751-4E85-A930-EBB455FB386A}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="8_{25B99684-15A0-4B00-8E19-386A7097130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47AE358C-E7F2-4357-86F6-525D1AC06625}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03669B97-91D3-4F23-A5A1-7757E74B40DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="média" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="173">
   <si>
     <t>Terrestre</t>
   </si>
@@ -120,9 +119,6 @@
     <t>Imune a</t>
   </si>
   <si>
-    <t>Fada, gelo e Pedra</t>
-  </si>
-  <si>
     <t>Aço, Água, Elétrico e Fogo</t>
   </si>
   <si>
@@ -156,19 +152,10 @@
     <t>defense</t>
   </si>
   <si>
-    <t>sp.atk</t>
-  </si>
-  <si>
-    <t>sp.def</t>
-  </si>
-  <si>
     <t>speed</t>
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>A 1ª Geração foi a que introduziu o tipo Água, incluindo 32 Pokémon e 9 Movimentos. A primeira geração foi, inclusive, a que mais criou Pokémon e Movimentos aquáticos. Atualmente, estes números chegam a 164 Pokémon e 53 Movimentos. Isso provavelmente é uma alusão ao nosso mundo, cuja superfície é 75% composta por água. No TCG, Água está incluído em um tipo de mesmo nome. Em inglês, o tipo Água é chamado de Water Type.</t>
@@ -557,6 +544,18 @@
   </si>
   <si>
     <t>https://github.com/cristiano-silva-0182/DesafioPokemon/blob/main/images/png_tipos/cards/card_voador.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/cristiano-silva-0182/DesafioPokemon/main/images/png_tipos/cards/card_sombrio.png</t>
+  </si>
+  <si>
+    <t>Fada, Gelo e Pedra</t>
+  </si>
+  <si>
+    <t>sp_atk</t>
+  </si>
+  <si>
+    <t>sp_def</t>
   </si>
 </sst>
 </file>
@@ -572,18 +571,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -598,12 +591,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,15 +910,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEE4D0B-2888-4118-8B17-5ED3843D4831}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -955,16 +947,37 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -972,37 +985,58 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" t="s">
-        <v>156</v>
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="K2">
+        <v>96.7</v>
+      </c>
+      <c r="L2">
+        <v>110.28</v>
+      </c>
+      <c r="M2">
+        <v>70.11</v>
+      </c>
+      <c r="N2">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="O2">
+        <v>60.44</v>
+      </c>
+      <c r="P2">
+        <v>484.86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1010,37 +1044,58 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" t="s">
-        <v>157</v>
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>69.64</v>
+      </c>
+      <c r="K3">
+        <v>74.72</v>
+      </c>
+      <c r="L3">
+        <v>74.89</v>
+      </c>
+      <c r="M3">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="N3">
+        <v>71.39</v>
+      </c>
+      <c r="O3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="P3">
+        <v>426.99</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1048,37 +1103,58 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" t="s">
-        <v>158</v>
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>88.24</v>
+      </c>
+      <c r="K4">
+        <v>102.7</v>
+      </c>
+      <c r="L4">
+        <v>89.8</v>
+      </c>
+      <c r="M4">
+        <v>97.9</v>
+      </c>
+      <c r="N4">
+        <v>85.9</v>
+      </c>
+      <c r="O4">
+        <v>82.44</v>
+      </c>
+      <c r="P4">
+        <v>546.98</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1086,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -1101,22 +1177,43 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" t="s">
-        <v>159</v>
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>64.06</v>
+      </c>
+      <c r="K5">
+        <v>74.84</v>
+      </c>
+      <c r="L5">
+        <v>69.56</v>
+      </c>
+      <c r="M5">
+        <v>86.93</v>
+      </c>
+      <c r="N5">
+        <v>71.37</v>
+      </c>
+      <c r="O5">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="P5">
+        <v>446.97</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1124,37 +1221,58 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" t="s">
-        <v>160</v>
+      <c r="J6">
+        <v>67.47</v>
+      </c>
+      <c r="K6">
+        <v>68.69</v>
+      </c>
+      <c r="L6">
+        <v>73.63</v>
+      </c>
+      <c r="M6">
+        <v>81.41</v>
+      </c>
+      <c r="N6">
+        <v>86.47</v>
+      </c>
+      <c r="O6">
+        <v>64.89</v>
+      </c>
+      <c r="P6">
+        <v>442.56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1162,37 +1280,58 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" t="s">
-        <v>161</v>
+        <v>62</v>
+      </c>
+      <c r="J7">
+        <v>63.54</v>
+      </c>
+      <c r="K7">
+        <v>79.03</v>
+      </c>
+      <c r="L7">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="M7">
+        <v>80.84</v>
+      </c>
+      <c r="N7">
+        <v>78.55</v>
+      </c>
+      <c r="O7">
+        <v>63.21</v>
+      </c>
+      <c r="P7">
+        <v>445.21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1200,37 +1339,58 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" t="s">
-        <v>162</v>
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>68.8</v>
+      </c>
+      <c r="K8">
+        <v>82.55</v>
+      </c>
+      <c r="L8">
+        <v>68.5</v>
+      </c>
+      <c r="M8">
+        <v>86.83</v>
+      </c>
+      <c r="N8">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="O8">
+        <v>73.8</v>
+      </c>
+      <c r="P8">
+        <v>451.33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1238,37 +1398,58 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" t="s">
-        <v>163</v>
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>77.11</v>
+      </c>
+      <c r="K9">
+        <v>83.69</v>
+      </c>
+      <c r="L9">
+        <v>75.55</v>
+      </c>
+      <c r="M9">
+        <v>76.38</v>
+      </c>
+      <c r="N9">
+        <v>76.27</v>
+      </c>
+      <c r="O9">
+        <v>68.819999999999993</v>
+      </c>
+      <c r="P9">
+        <v>457.82</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1276,37 +1457,58 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" t="s">
-        <v>164</v>
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>57.06</v>
+      </c>
+      <c r="K10">
+        <v>71.89</v>
+      </c>
+      <c r="L10">
+        <v>71.11</v>
+      </c>
+      <c r="M10">
+        <v>56.74</v>
+      </c>
+      <c r="N10">
+        <v>65.78</v>
+      </c>
+      <c r="O10">
+        <v>61.92</v>
+      </c>
+      <c r="P10">
+        <v>384.5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1314,37 +1516,58 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" t="s">
-        <v>165</v>
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>75.64</v>
+      </c>
+      <c r="K11">
+        <v>107.31</v>
+      </c>
+      <c r="L11">
+        <v>77.5</v>
+      </c>
+      <c r="M11">
+        <v>66.14</v>
+      </c>
+      <c r="N11">
+        <v>72.25</v>
+      </c>
+      <c r="O11">
+        <v>77.08</v>
+      </c>
+      <c r="P11">
+        <v>475.92</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1352,13 +1575,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -1367,22 +1590,43 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
       </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" t="s">
-        <v>166</v>
+      <c r="J12">
+        <v>75.87</v>
+      </c>
+      <c r="K12">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="L12">
+        <v>60.81</v>
+      </c>
+      <c r="M12">
+        <v>58.5</v>
+      </c>
+      <c r="N12">
+        <v>64.7</v>
+      </c>
+      <c r="O12">
+        <v>71.2</v>
+      </c>
+      <c r="P12">
+        <v>404.84</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" t="s">
+        <v>144</v>
+      </c>
+      <c r="S12" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1390,37 +1634,58 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" t="s">
-        <v>167</v>
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>68.03</v>
+      </c>
+      <c r="K13">
+        <v>91.12</v>
+      </c>
+      <c r="L13">
+        <v>104.24</v>
+      </c>
+      <c r="M13">
+        <v>59.81</v>
+      </c>
+      <c r="N13">
+        <v>72.58</v>
+      </c>
+      <c r="O13">
+        <v>53.69</v>
+      </c>
+      <c r="P13">
+        <v>449.47</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1428,37 +1693,58 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" t="s">
-        <v>168</v>
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>66.22</v>
+      </c>
+      <c r="K14">
+        <v>75.53</v>
+      </c>
+      <c r="L14">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="M14">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="N14">
+        <v>71.38</v>
+      </c>
+      <c r="O14">
+        <v>59.4</v>
+      </c>
+      <c r="P14">
+        <v>418.53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1466,37 +1752,58 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" t="s">
-        <v>169</v>
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>71.13</v>
+      </c>
+      <c r="K15">
+        <v>73.39</v>
+      </c>
+      <c r="L15">
+        <v>74.45</v>
+      </c>
+      <c r="M15">
+        <v>93.07</v>
+      </c>
+      <c r="N15">
+        <v>86.34</v>
+      </c>
+      <c r="O15">
+        <v>74.62</v>
+      </c>
+      <c r="P15">
+        <v>473</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>129</v>
+      </c>
+      <c r="R15" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1504,35 +1811,58 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="2"/>
+      <c r="J16">
+        <v>72.59</v>
+      </c>
+      <c r="K16">
+        <v>92.25</v>
+      </c>
+      <c r="L16">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="M16">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="N16">
+        <v>68.25</v>
+      </c>
+      <c r="O16">
+        <v>76.14</v>
+      </c>
+      <c r="P16">
+        <v>451.79</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" t="s">
+        <v>148</v>
+      </c>
+      <c r="S16" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1540,37 +1870,58 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" t="s">
-        <v>170</v>
+      <c r="J17">
+        <v>75.23</v>
+      </c>
+      <c r="K17">
+        <v>91.64</v>
+      </c>
+      <c r="L17">
+        <v>86.53</v>
+      </c>
+      <c r="M17">
+        <v>59.86</v>
+      </c>
+      <c r="N17">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="O17">
+        <v>57.83</v>
+      </c>
+      <c r="P17">
+        <v>436.13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" t="s">
+        <v>149</v>
+      </c>
+      <c r="S17" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1578,37 +1929,58 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" t="s">
-        <v>154</v>
-      </c>
-      <c r="L18" t="s">
-        <v>171</v>
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>67.55</v>
+      </c>
+      <c r="K18">
+        <v>71.86</v>
+      </c>
+      <c r="L18">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="M18">
+        <v>71.45</v>
+      </c>
+      <c r="N18">
+        <v>70.92</v>
+      </c>
+      <c r="O18">
+        <v>66.260000000000005</v>
+      </c>
+      <c r="P18">
+        <v>416</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" t="s">
+        <v>150</v>
+      </c>
+      <c r="S18" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1616,34 +1988,55 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" t="s">
-        <v>172</v>
+      <c r="J19">
+        <v>71.59</v>
+      </c>
+      <c r="K19">
+        <v>80.25</v>
+      </c>
+      <c r="L19">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="M19">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="N19">
+        <v>70.95</v>
+      </c>
+      <c r="O19">
+        <v>85.15</v>
+      </c>
+      <c r="P19">
+        <v>452.47</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>133</v>
+      </c>
+      <c r="R19" t="s">
+        <v>151</v>
+      </c>
+      <c r="S19" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1652,571 +2045,4 @@
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C328E8-78BD-47D0-BE75-A277413FC228}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>68.319999999999993</v>
-      </c>
-      <c r="D2">
-        <v>96.7</v>
-      </c>
-      <c r="E2">
-        <v>110.28</v>
-      </c>
-      <c r="F2">
-        <v>70.11</v>
-      </c>
-      <c r="G2">
-        <v>79.010000000000005</v>
-      </c>
-      <c r="H2">
-        <v>60.44</v>
-      </c>
-      <c r="I2">
-        <v>484.86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>69.64</v>
-      </c>
-      <c r="D3">
-        <v>74.72</v>
-      </c>
-      <c r="E3">
-        <v>74.89</v>
-      </c>
-      <c r="F3">
-        <v>73.430000000000007</v>
-      </c>
-      <c r="G3">
-        <v>71.39</v>
-      </c>
-      <c r="H3">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="I3">
-        <v>426.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>88.24</v>
-      </c>
-      <c r="D4">
-        <v>102.7</v>
-      </c>
-      <c r="E4">
-        <v>89.8</v>
-      </c>
-      <c r="F4">
-        <v>97.9</v>
-      </c>
-      <c r="G4">
-        <v>85.9</v>
-      </c>
-      <c r="H4">
-        <v>82.44</v>
-      </c>
-      <c r="I4">
-        <v>546.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>64.06</v>
-      </c>
-      <c r="D5">
-        <v>74.84</v>
-      </c>
-      <c r="E5">
-        <v>69.56</v>
-      </c>
-      <c r="F5">
-        <v>86.93</v>
-      </c>
-      <c r="G5">
-        <v>71.37</v>
-      </c>
-      <c r="H5">
-        <v>80.209999999999994</v>
-      </c>
-      <c r="I5">
-        <v>446.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>67.47</v>
-      </c>
-      <c r="D6">
-        <v>68.69</v>
-      </c>
-      <c r="E6">
-        <v>73.63</v>
-      </c>
-      <c r="F6">
-        <v>81.41</v>
-      </c>
-      <c r="G6">
-        <v>86.47</v>
-      </c>
-      <c r="H6">
-        <v>64.89</v>
-      </c>
-      <c r="I6">
-        <v>442.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>63.54</v>
-      </c>
-      <c r="D7">
-        <v>79.03</v>
-      </c>
-      <c r="E7">
-        <v>80.040000000000006</v>
-      </c>
-      <c r="F7">
-        <v>80.84</v>
-      </c>
-      <c r="G7">
-        <v>78.55</v>
-      </c>
-      <c r="H7">
-        <v>63.21</v>
-      </c>
-      <c r="I7">
-        <v>445.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>68.8</v>
-      </c>
-      <c r="D8">
-        <v>82.55</v>
-      </c>
-      <c r="E8">
-        <v>68.5</v>
-      </c>
-      <c r="F8">
-        <v>86.83</v>
-      </c>
-      <c r="G8">
-        <v>70.849999999999994</v>
-      </c>
-      <c r="H8">
-        <v>73.8</v>
-      </c>
-      <c r="I8">
-        <v>451.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>77.11</v>
-      </c>
-      <c r="D9">
-        <v>83.69</v>
-      </c>
-      <c r="E9">
-        <v>75.55</v>
-      </c>
-      <c r="F9">
-        <v>76.38</v>
-      </c>
-      <c r="G9">
-        <v>76.27</v>
-      </c>
-      <c r="H9">
-        <v>68.819999999999993</v>
-      </c>
-      <c r="I9">
-        <v>457.82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>57.06</v>
-      </c>
-      <c r="D10">
-        <v>71.89</v>
-      </c>
-      <c r="E10">
-        <v>71.11</v>
-      </c>
-      <c r="F10">
-        <v>56.74</v>
-      </c>
-      <c r="G10">
-        <v>65.78</v>
-      </c>
-      <c r="H10">
-        <v>61.92</v>
-      </c>
-      <c r="I10">
-        <v>384.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>75.64</v>
-      </c>
-      <c r="D11">
-        <v>107.31</v>
-      </c>
-      <c r="E11">
-        <v>77.5</v>
-      </c>
-      <c r="F11">
-        <v>66.14</v>
-      </c>
-      <c r="G11">
-        <v>72.25</v>
-      </c>
-      <c r="H11">
-        <v>77.08</v>
-      </c>
-      <c r="I11">
-        <v>475.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>75.87</v>
-      </c>
-      <c r="D12">
-        <v>73.760000000000005</v>
-      </c>
-      <c r="E12">
-        <v>60.81</v>
-      </c>
-      <c r="F12">
-        <v>58.5</v>
-      </c>
-      <c r="G12">
-        <v>64.7</v>
-      </c>
-      <c r="H12">
-        <v>71.2</v>
-      </c>
-      <c r="I12">
-        <v>404.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>68.03</v>
-      </c>
-      <c r="D13">
-        <v>91.12</v>
-      </c>
-      <c r="E13">
-        <v>104.24</v>
-      </c>
-      <c r="F13">
-        <v>59.81</v>
-      </c>
-      <c r="G13">
-        <v>72.58</v>
-      </c>
-      <c r="H13">
-        <v>53.69</v>
-      </c>
-      <c r="I13">
-        <v>449.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>66.22</v>
-      </c>
-      <c r="D14">
-        <v>75.53</v>
-      </c>
-      <c r="E14">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="F14">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="G14">
-        <v>71.38</v>
-      </c>
-      <c r="H14">
-        <v>59.4</v>
-      </c>
-      <c r="I14">
-        <v>418.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>71.13</v>
-      </c>
-      <c r="D15">
-        <v>73.39</v>
-      </c>
-      <c r="E15">
-        <v>74.45</v>
-      </c>
-      <c r="F15">
-        <v>93.07</v>
-      </c>
-      <c r="G15">
-        <v>86.34</v>
-      </c>
-      <c r="H15">
-        <v>74.62</v>
-      </c>
-      <c r="I15">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>72.59</v>
-      </c>
-      <c r="D16">
-        <v>92.25</v>
-      </c>
-      <c r="E16">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="F16">
-        <v>74.319999999999993</v>
-      </c>
-      <c r="G16">
-        <v>68.25</v>
-      </c>
-      <c r="H16">
-        <v>76.14</v>
-      </c>
-      <c r="I16">
-        <v>451.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>75.23</v>
-      </c>
-      <c r="D17">
-        <v>91.64</v>
-      </c>
-      <c r="E17">
-        <v>86.53</v>
-      </c>
-      <c r="F17">
-        <v>59.86</v>
-      </c>
-      <c r="G17">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="H17">
-        <v>57.83</v>
-      </c>
-      <c r="I17">
-        <v>436.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>67.55</v>
-      </c>
-      <c r="D18">
-        <v>71.86</v>
-      </c>
-      <c r="E18">
-        <v>67.959999999999994</v>
-      </c>
-      <c r="F18">
-        <v>71.45</v>
-      </c>
-      <c r="G18">
-        <v>70.92</v>
-      </c>
-      <c r="H18">
-        <v>66.260000000000005</v>
-      </c>
-      <c r="I18">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>71.59</v>
-      </c>
-      <c r="D19">
-        <v>80.25</v>
-      </c>
-      <c r="E19">
-        <v>68.319999999999993</v>
-      </c>
-      <c r="F19">
-        <v>76.209999999999994</v>
-      </c>
-      <c r="G19">
-        <v>70.95</v>
-      </c>
-      <c r="H19">
-        <v>85.15</v>
-      </c>
-      <c r="I19">
-        <v>452.47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>